--- a/generadas/LEBAC 35 DIAS TC PF-1.xlsx
+++ b/generadas/LEBAC 35 DIAS TC PF-1.xlsx
@@ -25,7 +25,7 @@
     <t>Fecha:</t>
   </si>
   <si>
-    <t>26-Apr-2016</t>
+    <t>31-May-2016</t>
   </si>
   <si>
     <t>CÓDIGO AGENTE:</t>
@@ -70,7 +70,7 @@
     <t>OBSERVACIONES</t>
   </si>
   <si>
-    <t>20-21141637-9</t>
+    <t>20-08253116-6</t>
   </si>
   <si>
     <t>TOTAL:</t>
@@ -1191,7 +1191,7 @@
         <v>1</v>
       </c>
       <c r="B14" s="18">
-        <v>2500000</v>
+        <v>1100000</v>
       </c>
       <c r="C14" s="19">
         <v>0.971</v>
@@ -1462,7 +1462,7 @@
     </dataValidation>
   </dataValidations>
   <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.74803149606299" right="0.74803149606299" top="1.1811023622047" bottom="0.98425196850394" header="0.51" footer="0"/>
+  <pageMargins left="0.748031496062992" right="0.748031496062992" top="1.18110236220472" bottom="0.984251968503937" header="0.51" footer="0"/>
   <pageSetup paperSize="1" orientation="portrait" scale="85" fitToHeight="1" fitToWidth="1"/>
   <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="false">
     <oddHeader/>
